--- a/WeeklySupportTicketSummary/bin/Debug/WeeklySupportTicketSummary.xlsx
+++ b/WeeklySupportTicketSummary/bin/Debug/WeeklySupportTicketSummary.xlsx
@@ -17,7 +17,7 @@
     <t xml:space="preserve">Period Covered</t>
   </si>
   <si>
-    <t xml:space="preserve">Jul 05,2024 - Jun 28,2024</t>
+    <t xml:space="preserve">Jul 08,2024 - Jul 01,2024</t>
   </si>
   <si>
     <t xml:space="preserve">Company</t>
